--- a/Templates/KL_SwingSystems_customV2.xlsx
+++ b/Templates/KL_SwingSystems_customV2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\edgeraterdata\UserDocsRoot\EdgeRater\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\EdgeRater\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C18A2C-983A-407F-8CA4-BDCA19B0A473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23DEBB4-54EB-4DE0-96EF-E1FB9A608DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41700" yWindow="3030" windowWidth="28950" windowHeight="16275" tabRatio="371" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4335" yWindow="2430" windowWidth="26955" windowHeight="16080" tabRatio="371" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template Info" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
   <si>
     <t>Val</t>
   </si>
@@ -330,9 +330,6 @@
     <t>Zscore Slope</t>
   </si>
   <si>
-    <t>MAIN;My.KL_RLxSLOPE(22,130)</t>
-  </si>
-  <si>
     <t>KL_Swing Systems Custom_v2</t>
   </si>
   <si>
@@ -342,18 +339,6 @@
     <t>SECTORS</t>
   </si>
   <si>
-    <t>MAIN;My.KL_RISKZ_VIX(^VIX)</t>
-  </si>
-  <si>
-    <t>My.KL_RLxSLOPE_Sectors(XLE,XLB,XLF,XLK,XME,22,130,SPY)</t>
-  </si>
-  <si>
-    <t>My.KL_RISKZ_EQUITY</t>
-  </si>
-  <si>
-    <t>MAIN;My.KL_RISKZ_EQUITY</t>
-  </si>
-  <si>
     <t>Signals!A:R ER_DATA</t>
   </si>
   <si>
@@ -366,10 +351,28 @@
     <t>Signals!T:T ER_DATA</t>
   </si>
   <si>
-    <t>Signals!$C$3</t>
-  </si>
-  <si>
     <t>Signals!$B$5</t>
+  </si>
+  <si>
+    <t>OB.KL_RISKZ_EQUITY</t>
+  </si>
+  <si>
+    <t>OB.KL_RLxSLOPE</t>
+  </si>
+  <si>
+    <t>MAIN;OB.KL_RISKZ_EQUITY</t>
+  </si>
+  <si>
+    <t>MAIN;OB.KL_RLxSLOPE(22,130)</t>
+  </si>
+  <si>
+    <t>MAIN;OB.KL_RISKZ_VIX(^VIX)</t>
+  </si>
+  <si>
+    <t>OB.KL_RLxSLOPE_Sectors(XLE,XLB,XLF,XLK,XME,22,130,SPY)</t>
+  </si>
+  <si>
+    <t>Signals!$C$5</t>
   </si>
 </sst>
 </file>
@@ -1807,7 +1810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:J11"/>
     </sheetView>
   </sheetViews>
@@ -1894,7 +1897,7 @@
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="94" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="94"/>
       <c r="C7" s="94"/>
@@ -2589,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2678,16 +2681,15 @@
       <c r="Q3" s="70"/>
       <c r="R3" s="71"/>
       <c r="S3" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="T3" s="70" t="str">
-        <f>"My.KL_RLxSLOPE"</f>
-        <v>My.KL_RLxSLOPE</v>
+        <v>90</v>
+      </c>
+      <c r="T3" s="70" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="76" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="12"/>
@@ -2739,10 +2741,10 @@
     </row>
     <row r="5" spans="1:21" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="75" t="s">
         <v>84</v>
-      </c>
-      <c r="C5" s="75" t="s">
-        <v>85</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3048,7 +3050,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3101,7 +3103,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>19</v>
@@ -3112,34 +3114,34 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="73" t="s">
         <v>92</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="73" t="s">
         <v>93</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C9" s="73" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
